--- a/TestCycle.xlsx
+++ b/TestCycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syrek.w\Documents\UiPath\JIRA_Migration_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE3997-E0A0-4A45-80D3-DE3D6762A636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58B5405-93F1-4730-970B-6FD7ABF362AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Store Online LA</t>
   </si>
   <si>
-    <t>TEST FOLDERS</t>
-  </si>
-  <si>
     <t>ddc4ef24-c0cd-498e-8944-af7b7e58c84f</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Store Online</t>
+  </si>
+  <si>
+    <t>id2</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,15 +904,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,60 +926,78 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>10015</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10015</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10015</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10015</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="C6">
+        <v>10015</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
